--- a/SEM-2/PA/ISE/ISE.xlsx
+++ b/SEM-2/PA/ISE/ISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPIT-FYMCA\SEM-2\PA\ISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B224423B-E56E-406E-9912-1252D997EB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC7775-C100-407B-AB3D-8A8C2FE9A24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96F00265-2533-4328-A984-84942CBE4648}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -43,6 +43,28 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>Your username is invalid!
+×</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>abc@123</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -397,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54E5087-6654-4E1E-A11A-B02E6B912DBB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +432,7 @@
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,26 +443,437 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+    <row r="2" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>123456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>123456</v>
+      </c>
+      <c r="B9">
+        <v>123456</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>123456</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>123456</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>123456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>123456</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>123456</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>123456</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>123456</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>123456</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
